--- a/medicine/Hématologie/Bruno_Varet/Bruno_Varet.xlsx
+++ b/medicine/Hématologie/Bruno_Varet/Bruno_Varet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruno Varet est un médecin hématologue français, né le 10 décembre 1942. Il est médecin de l'hôpital Necker-Enfants malades et professeur des Universités de l'université Paris Descartes (PU-PH).
 </t>
@@ -511,21 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruno Varet a fait ses études au lycée de Sèvres. Après SPCN à la Faculté des sciences de Paris, il a suivi les études de médecine à Paris. Parallèlement, il est nommé à l'externat des Hôpitaux de Paris en 1961, puis à l'Internat en 1964.
 Il s'initie à la recherche à l'Institut des Maladies du Sang du Pr Jean Bernard à l'hôpital Saint-Louis sous la direction du Pr Jean-Paul Levy à partir de 1966. Il soutient sa thèse de médecine en 1969 et obtient le DERBH mention immunologie en 1971. 
 Chef de clinique-Assistant (CCA) au CHU Henri-Mondor de Créteil de 1969 à 1971, il poursuit sa carrière au CHU Cochin Université Paris V (renommée ensuite Paris Descartes) dans le service d'Hématologie dirigé par le Pr Jean-Paul Levy où il sera successivement assistant hospitalo-universitaire (AHU), chef de travaux en 1974 et professeur agrégé en 1976, puis professeur des universités et praticien (PU-PH). 
 En 1992, il prend la responsabilité d'un nouveau service d'hématologie clinique créé à l'Hôpital Necker. De 2009 à 2012 il est PU-PH consultant dans ce service  et Professeur des universités à la Faculté de Médecine Paris Descartes). De 2012 à 2021 il a été professeur émérite de cette université.
-Cabinet de Claude Évin
-Bruno Varet a été conseiller technique dans le cabinet de Claude Évin, ministre de la solidarité, de la santé et de la protection sociale de mai 1988 à mai 1991 chargé des hôpitaux universitaires, de la recherche, de l'évaluation et du SIDA. (gouvernements de Michel Rocard 1 et 2).
-Université Paris Descartes
-Bruno Varet a été de 2004 à 2012 vice-président du conseil scientifique de l'Université Paris Descartes. 
-Il a été administrateur provisoire du 11 juillet 2007 au 4 janvier 2008. Il a organisé la préparation de l'université à l'application de la loi LRU (rédaction et vote des nouveaux statuts, organisation des élections aux trois conseils...). Il a assuré cette charge jusqu'à la prise de fonctions du nouveau président, Axel Kahn.
-Conseil National des Universités (C.N.U.)
-Président de la sous-section 4701 (hématologie;transfusion) de 1998  à 2009.
-Agence Nationale de Recherche (A.N.R)
-De septembre 2015 à septembre 2019, il est responsable de l'action "Recherche Hospitalo-Universitaire en santé" (R.H.U) dans le cadre du "Programme Investissements d'Avenir ("P.I.A.").
 </t>
         </is>
       </c>
@@ -551,12 +556,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Décorations</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur (2013)[1]</t>
+          <t>Cabinet de Claude Évin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruno Varet a été conseiller technique dans le cabinet de Claude Évin, ministre de la solidarité, de la santé et de la protection sociale de mai 1988 à mai 1991 chargé des hôpitaux universitaires, de la recherche, de l'évaluation et du SIDA. (gouvernements de Michel Rocard 1 et 2).
+</t>
         </is>
       </c>
     </row>
@@ -581,14 +593,203 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Université Paris Descartes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruno Varet a été de 2004 à 2012 vice-président du conseil scientifique de l'Université Paris Descartes. 
+Il a été administrateur provisoire du 11 juillet 2007 au 4 janvier 2008. Il a organisé la préparation de l'université à l'application de la loi LRU (rédaction et vote des nouveaux statuts, organisation des élections aux trois conseils...). Il a assuré cette charge jusqu'à la prise de fonctions du nouveau président, Axel Kahn.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bruno_Varet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruno_Varet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Université Paris Descartes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Conseil National des Universités (C.N.U.)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Président de la sous-section 4701 (hématologie;transfusion) de 1998  à 2009.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruno_Varet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruno_Varet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Université Paris Descartes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Agence Nationale de Recherche (A.N.R)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De septembre 2015 à septembre 2019, il est responsable de l'action "Recherche Hospitalo-Universitaire en santé" (R.H.U) dans le cadre du "Programme Investissements d'Avenir ("P.I.A.").
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bruno_Varet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruno_Varet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bruno_Varet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruno_Varet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il est l'auteur de 276 publications internationales indexées[2].
-Ouvrages
-Hématologie (624 pages, Flammarion Médecine-Sciences; 1er octobre 2003)  (ISBN 2257121473)
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'auteur de 276 publications internationales indexées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bruno_Varet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruno_Varet</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hématologie (624 pages, Flammarion Médecine-Sciences; 1er octobre 2003)  (ISBN 2257121473)
 Maladies et grands syndromes : Partie 2 du programme de DCEM2-DCEM4 (287 pages, Masson (7 septembre 2006)  (ISBN 2294019245)
 Profession : chef de service par Claude Labram et Bruno Varet (157 pages, Berger-Levrault, 19 juillet 2005).  (ISBN 2701311357)
 Le livre de l'interne en Hématologie (FLAMMARION 3e édition 2012)
